--- a/data/transformed_data_2019.xlsx
+++ b/data/transformed_data_2019.xlsx
@@ -54738,7 +54738,7 @@
         <v>33</v>
       </c>
       <c r="D52">
-        <v>517.6243971155454</v>
+        <v>597.6810928037421</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -54808,7 +54808,7 @@
         <v>7</v>
       </c>
       <c r="D57">
-        <v>1112.811940298508</v>
+        <v>1760.543387230276</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -54920,7 +54920,7 @@
         <v>33</v>
       </c>
       <c r="D65">
-        <v>216.5168200660964</v>
+        <v>431.2146268656725</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -56208,7 +56208,7 @@
         <v>46</v>
       </c>
       <c r="D157">
-        <v>3634.913031012915</v>
+        <v>4362.70117363288</v>
       </c>
     </row>
     <row r="158" spans="1:4">

--- a/data/transformed_data_2019.xlsx
+++ b/data/transformed_data_2019.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17544" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17547" uniqueCount="45">
   <si>
     <t>source</t>
   </si>
@@ -126,7 +126,7 @@
     <t>Imports of end-use goods</t>
   </si>
   <si>
-    <t>Imports of waste</t>
+    <t>Imports of loss</t>
   </si>
   <si>
     <t>Imports of generated scrap</t>
@@ -138,7 +138,7 @@
     <t>Reference flow start</t>
   </si>
   <si>
-    <t>Waste</t>
+    <t>Loss</t>
   </si>
   <si>
     <t>Exports of iron ore</t>
@@ -1210,7 +1210,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>34097.74509042443</v>
+        <v>34236.96761399414</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1448,7 +1448,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>98813.60886594433</v>
+        <v>99940.04564755353</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1546,7 +1546,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>4466.223531870433</v>
+        <v>4514.660313479631</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1644,7 +1644,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>99399.44</v>
+        <v>100477.44</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1826,7 +1826,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>607134.1359534319</v>
+        <v>607803.7338318349</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1896,7 +1896,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>34257.49595343194</v>
+        <v>34927.09383183485</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1994,7 +1994,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>370304.144046568</v>
+        <v>370712.546168165</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2064,7 +2064,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>20894.3822542493</v>
+        <v>21302.78437584639</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2400,7 +2400,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>176203.9275634345</v>
+        <v>176391.5868686134</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2582,7 +2582,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>9545.9</v>
+        <v>9163.05982905983</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2750,7 +2750,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>555423.0223133914</v>
+        <v>555040.1821424513</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4177,7 +4177,7 @@
         <v>6</v>
       </c>
       <c r="D64">
-        <v>17053.20405729586</v>
+        <v>22853.47496995881</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -4191,7 +4191,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>6560.121659248342</v>
+        <v>759.8507465853945</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -5179,13 +5179,13 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C136" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D136">
-        <v>5800.270912662949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -5193,13 +5193,13 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C137" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>5800.270912662948</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -5325,7 +5325,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>8321.300000000001</v>
+        <v>8394.627262563079</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -5493,7 +5493,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>14596.94808928542</v>
+        <v>14670.2753518485</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -5708,10 +5708,10 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C174" t="s">
         <v>15</v>
@@ -5722,10 +5722,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B175" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>15</v>
@@ -6682,7 +6682,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>1539.765487479302</v>
+        <v>1550.650157503842</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -6920,7 +6920,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>16346.72795364868</v>
+        <v>16434.79482930177</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -7018,7 +7018,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>834.1694461859988</v>
+        <v>837.9563218390831</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -7116,7 +7116,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>18565.12</v>
+        <v>18649.4</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -7298,7 +7298,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>14413.57500298552</v>
+        <v>14459.157390654</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -7368,7 +7368,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>1753.935002985516</v>
+        <v>1799.517390654002</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -7466,7 +7466,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>12236.54499701448</v>
+        <v>12275.242609346</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -7536,7 +7536,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>1489.020217498122</v>
+        <v>1527.71782982964</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -7872,7 +7872,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>7949.17217837773</v>
+        <v>7963.843724055352</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -10797,7 +10797,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>25936.3</v>
+        <v>24936.77715370619</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -10965,7 +10965,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>5516.988336520073</v>
+        <v>4517.465490226266</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -13540,7 +13540,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>711.75</v>
+        <v>691.9818584070797</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -13708,7 +13708,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>2758.236162825802</v>
+        <v>2738.468021232882</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -16283,7 +16283,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>1316.9</v>
+        <v>1073.720275139207</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -16451,7 +16451,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>7434.849884270905</v>
+        <v>7191.670159410112</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -24512,7 +24512,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>33905.3</v>
+        <v>31401.39553974552</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -24680,7 +24680,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>6048.763822079101</v>
+        <v>3544.85936182462</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -27255,7 +27255,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>1827.8</v>
+        <v>1410.075362318841</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -27423,7 +27423,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>2966.774539599477</v>
+        <v>2549.049901918318</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -31369,7 +31369,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>2635.523520195668</v>
+        <v>2641.218987068973</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -31607,7 +31607,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>18063.78091034839</v>
+        <v>18109.86241505059</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -31705,7 +31705,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>2757.946311389765</v>
+        <v>2759.927816091957</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -31803,7 +31803,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>61380.34</v>
+        <v>61424.44</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -31985,7 +31985,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>56971.60108601483</v>
+        <v>56995.12729937842</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -32055,7 +32055,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>2991.24108601483</v>
+        <v>3014.767299378422</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -32153,7 +32153,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>49821.93891398517</v>
+        <v>49842.51270062158</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -32223,7 +32223,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>2615.854703458856</v>
+        <v>2636.428490095263</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -32559,7 +32559,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>8676.643150104155</v>
+        <v>8684.320121679659</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -32573,7 +32573,7 @@
         <v>15</v>
       </c>
       <c r="D134">
-        <v>747.3681708201184</v>
+        <v>1667.134446453943</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -32741,7 +32741,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>20287.15</v>
+        <v>19367.38372436617</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -33423,7 +33423,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D193"/>
+  <dimension ref="A1:D194"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -34714,7 +34714,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>7258</v>
+        <v>7487.200000000001</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -34784,7 +34784,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>145.1599999999999</v>
+        <v>374.3600000000006</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -34882,7 +34882,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>1129.913229018492</v>
+        <v>1165.59469940855</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -34952,7 +34952,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>22.59826458036991</v>
+        <v>58.27973497042763</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -35288,7 +35288,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>1469.234700754783</v>
+        <v>1204.353230364724</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -35296,13 +35296,13 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C134" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D134">
-        <v>4.547473508864641E-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -35386,7 +35386,7 @@
         <v>15</v>
       </c>
       <c r="D140">
-        <v>1251.553229018492</v>
+        <v>1516.434699408551</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -35470,7 +35470,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>10.4</v>
+        <v>9.92</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -35638,7 +35638,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>3897.804246754554</v>
+        <v>3897.324246754554</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -35797,10 +35797,10 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B170" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C170" t="s">
         <v>15</v>
@@ -35811,10 +35811,10 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B171" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C171" t="s">
         <v>15</v>
@@ -35825,10 +35825,10 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B172" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C172" t="s">
         <v>15</v>
@@ -35839,10 +35839,10 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B173" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C173" t="s">
         <v>15</v>
@@ -35853,10 +35853,10 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C174" t="s">
         <v>15</v>
@@ -35867,10 +35867,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B175" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>15</v>
@@ -35881,10 +35881,10 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C176" t="s">
         <v>15</v>
@@ -35895,10 +35895,10 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B177" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C177" t="s">
         <v>15</v>
@@ -35909,10 +35909,10 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C178" t="s">
         <v>15</v>
@@ -35923,10 +35923,10 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B179" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
         <v>15</v>
@@ -35937,10 +35937,10 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B180" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C180" t="s">
         <v>15</v>
@@ -35951,10 +35951,10 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B181" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
         <v>15</v>
@@ -35965,10 +35965,10 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B182" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C182" t="s">
         <v>15</v>
@@ -35979,10 +35979,10 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B183" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C183" t="s">
         <v>15</v>
@@ -35993,10 +35993,10 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B184" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C184" t="s">
         <v>15</v>
@@ -36007,10 +36007,10 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B185" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C185" t="s">
         <v>15</v>
@@ -36021,10 +36021,10 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B186" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C186" t="s">
         <v>15</v>
@@ -36035,10 +36035,10 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B187" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C187" t="s">
         <v>15</v>
@@ -36049,10 +36049,10 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B188" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C188" t="s">
         <v>15</v>
@@ -36063,7 +36063,7 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B189" t="s">
         <v>31</v>
@@ -36077,10 +36077,10 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C190" t="s">
         <v>15</v>
@@ -36091,7 +36091,7 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B191" t="s">
         <v>7</v>
@@ -36105,29 +36105,43 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B192" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C192" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D192">
-        <v>372.0000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
+        <v>29</v>
+      </c>
+      <c r="B193" t="s">
+        <v>4</v>
+      </c>
+      <c r="C193" t="s">
+        <v>4</v>
+      </c>
+      <c r="D193">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
         <v>30</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B194" t="s">
         <v>42</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C194" t="s">
         <v>44</v>
       </c>
-      <c r="D193">
+      <c r="D194">
         <v>30000</v>
       </c>
     </row>
@@ -37037,7 +37051,7 @@
         <v>6</v>
       </c>
       <c r="D64">
-        <v>6318.047914494668</v>
+        <v>7698.725466316027</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -37051,7 +37065,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>1867.579974742533</v>
+        <v>486.9024229211745</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -38039,13 +38053,13 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C136" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D136">
-        <v>1380.677551821359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -38053,13 +38067,13 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C137" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>1380.677551821359</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -38568,10 +38582,10 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C174" t="s">
         <v>15</v>
@@ -38582,10 +38596,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B175" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>15</v>
@@ -39542,7 +39556,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>260.054506708997</v>
+        <v>260.8139022921041</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -39780,7 +39794,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>508.3531933592233</v>
+        <v>514.4973939861827</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -39878,7 +39892,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>30.95550679205849</v>
+        <v>31.21970741901782</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -39976,7 +39990,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>688.9399999999999</v>
+        <v>694.8199999999999</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -40158,7 +40172,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>1988.947317129903</v>
+        <v>1990.581844441611</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -40228,7 +40242,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>56.38731712990307</v>
+        <v>58.02184444161094</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -40326,7 +40340,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>5166.032682870098</v>
+        <v>5170.278155558391</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -40396,7 +40410,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>146.4587426140533</v>
+        <v>150.7042153023458</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -40732,7 +40746,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>1698.841467792896</v>
+        <v>1699.865064002962</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -43825,7 +43839,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>0</v>
+        <v>4581.875817651203</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -44329,7 +44343,7 @@
         <v>4</v>
       </c>
       <c r="D194">
-        <v>4581.875817651203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -45028,7 +45042,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>1205.532626117765</v>
+        <v>1205.912323909319</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -45266,7 +45280,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>1201.332197476567</v>
+        <v>1204.404297790047</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -45364,7 +45378,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>67.28309299895523</v>
+        <v>67.41519331243467</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -45462,7 +45476,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>1497.44</v>
+        <v>1500.38</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -45644,7 +45658,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>3019.541631236995</v>
+        <v>3020.82290774247</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -45714,7 +45728,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>290.2416312369951</v>
+        <v>291.5229077424706</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -45812,7 +45826,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>3909.058368763006</v>
+        <v>3910.717092257531</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -45882,7 +45896,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>375.7429491328494</v>
+        <v>377.401672627374</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -46218,7 +46232,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>9307.503971043428</v>
+        <v>9308.015769148462</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -51704,7 +51718,7 @@
         <v>15</v>
       </c>
       <c r="D134">
-        <v>20926.9680788971</v>
+        <v>46571.31299681833</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -51872,7 +51886,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>543545.6</v>
+        <v>517901.2550820787</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -54601,7 +54615,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>43413.5</v>
+        <v>42523.77532559007</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -54769,7 +54783,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>1530.683254503369</v>
+        <v>640.9585800934365</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -56588,7 +56602,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>5071</v>
+        <v>5231.136842105263</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -56658,7 +56672,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>101.4200000000001</v>
+        <v>261.5568421052631</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -56756,7 +56770,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>226.3712660028449</v>
+        <v>233.5198322976717</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -56826,7 +56840,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>4.527425320056892</v>
+        <v>11.6759916148836</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -57162,7 +57176,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>1619.604395925726</v>
+        <v>1452.318987525636</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -57260,7 +57274,7 @@
         <v>15</v>
       </c>
       <c r="D140">
-        <v>161.1912660028447</v>
+        <v>328.4766744029348</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -57344,7 +57358,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>17806.75</v>
+        <v>17121.875</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -57512,7 +57526,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>19439.8585840797</v>
+        <v>18754.9835840797</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -61430,7 +61444,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>4864.131511360283</v>
+        <v>4907.54362552792</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -61668,7 +61682,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>23338.79661091097</v>
+        <v>23690.04008008547</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -61766,7 +61780,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>1054.953103448275</v>
+        <v>1070.05657262278</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -61864,7 +61878,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>23478.84</v>
+        <v>23814.98</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -62046,7 +62060,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>31779.39686109288</v>
+        <v>31893.20161488909</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -62116,7 +62130,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>3182.016861092878</v>
+        <v>3295.82161488909</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -62214,7 +62228,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>62085.9831389071</v>
+        <v>62308.3183851109</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -62284,7 +62298,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>6216.563707897149</v>
+        <v>6438.898954100943</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -62620,7 +62634,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>28078.25408667118</v>
+        <v>28136.76967001331</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -64173,7 +64187,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>367.5388300843711</v>
+        <v>370.1967146252464</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -64411,7 +64425,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>1057.727142188743</v>
+        <v>1079.2318443831</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -64509,7 +64523,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>69.35266457680268</v>
+        <v>70.2773667711599</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -64607,7 +64621,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>1543.5</v>
+        <v>1564.08</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -64789,7 +64803,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>935.863433593868</v>
+        <v>940.314879144371</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -64859,7 +64873,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>106.7834335938679</v>
+        <v>111.234879144371</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -64957,7 +64971,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>3390.836566406132</v>
+        <v>3406.965120855629</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -65027,7 +65041,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>386.8995820533582</v>
+        <v>403.028136502855</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -65363,7 +65377,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>2379.968298219484</v>
+        <v>2383.550884954717</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -65377,7 +65391,7 @@
         <v>15</v>
       </c>
       <c r="D134">
-        <v>9512.614169266377</v>
+        <v>8204.289728309141</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -65545,7 +65559,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>14469</v>
+        <v>15777.32444095724</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -68274,7 +68288,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>7370.35</v>
+        <v>7204.737739872068</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -68442,7 +68456,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>1778.103849250276</v>
+        <v>1612.491589122344</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -69645,7 +69659,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>3413.904808869254</v>
+        <v>3591.097111594296</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -69883,7 +69897,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>14918.39255805612</v>
+        <v>16352.03937101328</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -69981,7 +69995,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>973.1389759665617</v>
+        <v>1034.78578892372</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -70079,7 +70093,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>21658</v>
+        <v>23030</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -70261,7 +70275,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>24515.42225509825</v>
+        <v>25134.5209086777</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -70331,7 +70345,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>2784.902255098252</v>
+        <v>3404.000908677703</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -70429,7 +70443,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>29813.81774490175</v>
+        <v>30566.7190913223</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -70499,7 +70513,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>3386.789238500613</v>
+        <v>4139.690584921165</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -70835,7 +70849,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>20557.87317795274</v>
+        <v>20796.71229363494</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -71017,7 +71031,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>14545.7</v>
+        <v>14750.33052055244</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -71185,7 +71199,7 @@
         <v>4</v>
       </c>
       <c r="D158">
-        <v>6265.014783133742</v>
+        <v>6469.64530368618</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -72388,7 +72402,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>2765.911736435992</v>
+        <v>2795.907861968728</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -72626,7 +72640,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>18349.75772641494</v>
+        <v>18592.45365117983</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -72724,7 +72738,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>988.946980146291</v>
+        <v>999.382904911181</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -72822,7 +72836,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>22009.82</v>
+        <v>22242.08</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -73004,7 +73018,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>21883.34513708557</v>
+        <v>21954.32689053436</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -73074,7 +73088,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>1883.505137085569</v>
+        <v>1954.486890534357</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -73172,7 +73186,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>49721.33486291442</v>
+        <v>49882.61310946563</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -73242,7 +73256,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>4279.52806348342</v>
+        <v>4440.806310034626</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -73578,7 +73592,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>13411.95879692877</v>
+        <v>13452.3908472264</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -75131,7 +75145,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>2415.667803572222</v>
+        <v>2415.920935433256</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -75369,7 +75383,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>9881.291876120969</v>
+        <v>9883.339942996623</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -75467,7 +75481,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>524.1300104493221</v>
+        <v>524.2180773249765</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -75565,7 +75579,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>11664.94</v>
+        <v>11666.9</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -75747,7 +75761,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>14392.5041070949</v>
+        <v>14393.23922490817</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -75817,7 +75831,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>1620.164107094899</v>
+        <v>1620.899224908168</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -75915,7 +75929,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>23981.3558929051</v>
+        <v>23982.58077509183</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -75985,7 +75999,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>2699.581099163996</v>
+        <v>2700.805981350724</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -76321,7 +76335,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>13968.66071872845</v>
+        <v>13969.00191746514</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -80617,7 +80631,7 @@
         <v>31</v>
       </c>
       <c r="D48">
-        <v>1508.915711398451</v>
+        <v>1515.750271646417</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -80855,7 +80869,7 @@
         <v>7</v>
       </c>
       <c r="D65">
-        <v>6408.059548261827</v>
+        <v>6463.357353904461</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -80953,7 +80967,7 @@
         <v>31</v>
       </c>
       <c r="D72">
-        <v>317.8333542319751</v>
+        <v>320.2111598746087</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -81051,7 +81065,7 @@
         <v>9</v>
       </c>
       <c r="D79">
-        <v>7073.639999999999</v>
+        <v>7126.559999999999</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -81233,7 +81247,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>10329</v>
+        <v>10655.17894736842</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -81303,7 +81317,7 @@
         <v>43</v>
       </c>
       <c r="D97">
-        <v>206.5799999999999</v>
+        <v>532.758947368422</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -81401,7 +81415,7 @@
         <v>10</v>
       </c>
       <c r="D104">
-        <v>20378.27169274538</v>
+        <v>21021.79606198997</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -81471,7 +81485,7 @@
         <v>43</v>
       </c>
       <c r="D109">
-        <v>407.5654338549066</v>
+        <v>1051.089803099498</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -81807,7 +81821,7 @@
         <v>43</v>
       </c>
       <c r="D133">
-        <v>9857.747248068166</v>
+        <v>8950.176297345753</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -81821,7 +81835,7 @@
         <v>15</v>
       </c>
       <c r="D134">
-        <v>11726.50008553889</v>
+        <v>16085.95947057224</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -81905,7 +81919,7 @@
         <v>15</v>
       </c>
       <c r="D140">
-        <v>7104.951692745377</v>
+        <v>8021.735009358388</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -81989,7 +82003,7 @@
         <v>4</v>
       </c>
       <c r="D146">
-        <v>221281.45</v>
+        <v>216921.9906149667</v>
       </c>
     </row>
     <row r="147" spans="1:4">

--- a/data/transformed_data_2019.xlsx
+++ b/data/transformed_data_2019.xlsx
@@ -2372,7 +2372,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>717979.6667413941</v>
+        <v>729831.4143413941</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2708,7 +2708,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>93871.25999999999</v>
+        <v>80729.2836</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2876,7 +2876,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>9215.92</v>
+        <v>7925.691199999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5115,7 +5115,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>16833.70334110953</v>
+        <v>16724.35494110953</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -5451,7 +5451,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>44.1</v>
+        <v>37.926</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -5619,7 +5619,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>825.16</v>
+        <v>709.6376</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -7844,7 +7844,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>17609.48411038407</v>
+        <v>18269.82771038407</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -8180,7 +8180,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>13074.18</v>
+        <v>11243.7948</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -8348,7 +8348,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>8357.440000000001</v>
+        <v>7187.3984</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -10587,7 +10587,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>6843.984179231862</v>
+        <v>6638.046979231863</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -10923,7 +10923,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>863.38</v>
+        <v>742.5068</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -11091,7 +11091,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2334.36</v>
+        <v>2007.5496</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -13330,7 +13330,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>11572.1307658606</v>
+        <v>12822.1599658606</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -13666,7 +13666,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>16903.04</v>
+        <v>14536.6144</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -13834,7 +13834,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>7974.26</v>
+        <v>6857.8636</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -16073,7 +16073,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>24270.37919715505</v>
+        <v>24142.64599715505</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -16409,7 +16409,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1441.58</v>
+        <v>1239.7588</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -16577,7 +16577,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2353.96</v>
+        <v>2024.4056</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -18816,7 +18816,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>16964.15893371266</v>
+        <v>16261.14613371266</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -19152,7 +19152,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>8459.360000000001</v>
+        <v>7275.049599999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -19320,7 +19320,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>13480.88</v>
+        <v>11593.5568</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -21559,7 +21559,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>10759.13313741109</v>
+        <v>10889.19873741109</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -21895,7 +21895,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>9290.4</v>
+        <v>7989.744</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -22063,7 +22063,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>8361.360000000001</v>
+        <v>7190.7696</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -24302,7 +24302,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>16127.07703157895</v>
+        <v>15409.52103157895</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -24638,7 +24638,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>6197.52</v>
+        <v>5329.867200000001</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -24806,7 +24806,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>11322.92</v>
+        <v>9737.7112</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -27045,7 +27045,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>16645.87096500711</v>
+        <v>16253.61616500711</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -27381,7 +27381,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1249.5</v>
+        <v>1074.57</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -27549,7 +27549,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>4051.32</v>
+        <v>3484.1352</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -29788,7 +29788,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>8512.8431027027</v>
+        <v>8913.604302702701</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -30124,7 +30124,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>9667.700000000001</v>
+        <v>8314.222</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -30292,7 +30292,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>6805.12</v>
+        <v>5852.4032</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -32531,7 +32531,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>89927.19842105263</v>
+        <v>89943.25082105263</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -32867,7 +32867,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>5449.78</v>
+        <v>4686.8108</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -33035,7 +33035,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>5335.12</v>
+        <v>4588.2032</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -35260,7 +35260,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>8294.215669416784</v>
+        <v>8084.025269416785</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -35596,7 +35596,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>166.6</v>
+        <v>143.276</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -35764,7 +35764,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1667.96</v>
+        <v>1434.4456</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -37989,7 +37989,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>14075.51553399715</v>
+        <v>13563.62233399715</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -38325,7 +38325,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>335.16</v>
+        <v>288.2376</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -38493,7 +38493,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3991.54</v>
+        <v>3432.7244</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -40718,7 +40718,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>4374.849588620198</v>
+        <v>4321.341588620198</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -41054,7 +41054,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>3897.46</v>
+        <v>3351.8156</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -41222,7 +41222,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>4279.66</v>
+        <v>3680.5076</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -43461,7 +43461,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>2995.704231578948</v>
+        <v>2916.402631578947</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -43797,7 +43797,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>8083.04</v>
+        <v>6951.4144</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -43965,7 +43965,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>8649.48</v>
+        <v>7438.552799999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -46204,7 +46204,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>13857.59646088194</v>
+        <v>13040.43326088193</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -46540,7 +46540,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>5852.559999999999</v>
+        <v>5033.2016</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -46708,7 +46708,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>11689.44</v>
+        <v>10052.9184</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -48947,7 +48947,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>5748.076693598862</v>
+        <v>5600.312293598861</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -49283,7 +49283,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>6990.34</v>
+        <v>6011.6924</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -49451,7 +49451,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>8045.8</v>
+        <v>6919.387999999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -51676,7 +51676,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>9479.81506913229</v>
+        <v>8793.81506913229</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -52012,7 +52012,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>450.8</v>
+        <v>387.6879999999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -52180,7 +52180,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>5350.8</v>
+        <v>4601.688</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -54405,7 +54405,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>2645.882623044096</v>
+        <v>2631.202223044097</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -54741,7 +54741,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1754.2</v>
+        <v>1508.612</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -54909,7 +54909,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1859.06</v>
+        <v>1598.7916</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -57148,7 +57148,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>8566.982902987196</v>
+        <v>8487.955702987198</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -57484,7 +57484,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1937.46</v>
+        <v>1666.2156</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -57652,7 +57652,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2501.94</v>
+        <v>2151.6684</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -59877,7 +59877,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>14869.47152546231</v>
+        <v>15049.88952546231</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -60213,7 +60213,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>4395.3</v>
+        <v>3779.958</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -60381,7 +60381,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3106.6</v>
+        <v>2671.676</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -62606,7 +62606,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>42417.79671066856</v>
+        <v>44318.01671066855</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -62942,7 +62942,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>21294.42</v>
+        <v>18313.2012</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -63110,7 +63110,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>7721.42</v>
+        <v>6640.4212</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -65349,7 +65349,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>4431.646206543385</v>
+        <v>4317.084206543385</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -65685,7 +65685,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>3151.68</v>
+        <v>2710.4448</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -65853,7 +65853,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3969.98</v>
+        <v>3414.1828</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -68078,7 +68078,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>108040.6375362731</v>
+        <v>104180.3783362731</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -68414,7 +68414,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>20447.7</v>
+        <v>17585.022</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -68582,7 +68582,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>48020.98</v>
+        <v>41298.0428</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -70821,7 +70821,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>43404.73491550498</v>
+        <v>42545.31411550498</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -71157,7 +71157,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2449.02</v>
+        <v>2106.1572</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -71325,7 +71325,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>8587.74</v>
+        <v>7385.4564</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -73564,7 +73564,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>33359.06664751066</v>
+        <v>35108.09224751066</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -73900,7 +73900,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>17579.24</v>
+        <v>15118.1464</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -74068,7 +74068,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>5086.2</v>
+        <v>4374.132</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -76307,7 +76307,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>22830.02432261735</v>
+        <v>23821.15712261735</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -76643,7 +76643,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>32241.02</v>
+        <v>27727.2772</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -76811,7 +76811,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>25161.5</v>
+        <v>21638.89</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -79050,7 +79050,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>17100.89698150782</v>
+        <v>17844.38378150782</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -79386,7 +79386,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>8474.059999999999</v>
+        <v>7287.6916</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -79554,7 +79554,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3163.44</v>
+        <v>2720.5584</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -81793,7 +81793,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>25659.8433826458</v>
+        <v>25610.86298264581</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -82129,7 +82129,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2312.8</v>
+        <v>1989.008</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -82297,7 +82297,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2662.66</v>
+        <v>2289.8876</v>
       </c>
     </row>
     <row r="168" spans="1:4">
